--- a/data-raw/fluxes/lf_05/lf_05_b_2018-11-25.xlsx
+++ b/data-raw/fluxes/lf_05/lf_05_b_2018-11-25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Dropbox (Partners HealthCare)/Copeland.2021.hypoxia.flux/inst/extdata/fluxes/lf_05/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Dropbox (Partners HealthCare)/Copeland.2021.hypoxia.flux/data-raw/fluxes/lf_05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE62428E-32EF-0349-B678-0F979577C930}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04827D2B-3D2D-9441-B209-B006C0274098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="2540" windowWidth="25600" windowHeight="15540" activeTab="5" xr2:uid="{1D4C4C2F-7A99-D141-A4DB-2424DC3A3300}"/>
+    <workbookView xWindow="9420" yWindow="2540" windowWidth="25600" windowHeight="15540" xr2:uid="{1D4C4C2F-7A99-D141-A4DB-2424DC3A3300}"/>
   </bookViews>
   <sheets>
     <sheet name="evap" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -196,9 +196,6 @@
     <t>2 Valine</t>
   </si>
   <si>
-    <t>treatment</t>
-  </si>
-  <si>
     <t>21%</t>
   </si>
   <si>
@@ -209,9 +206,6 @@
   </si>
   <si>
     <t>oxygen</t>
-  </si>
-  <si>
-    <t>none</t>
   </si>
 </sst>
 </file>
@@ -571,193 +565,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0473DBDA-133C-8E46-809A-4027CD08C62D}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2">
+        <v>-24</v>
+      </c>
+      <c r="C2">
+        <v>40.532800000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>52.226399999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>51.8551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>51.526800000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6">
+        <v>72</v>
+      </c>
+      <c r="C6">
+        <v>51.205300000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <v>96</v>
+      </c>
+      <c r="C7">
+        <v>50.911000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2">
+      <c r="B8">
         <v>-24</v>
       </c>
-      <c r="D2">
-        <v>40.532800000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="C8">
+        <v>39.692900000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3">
+      <c r="B9">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>52.226399999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="C9">
+        <v>51.446199999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4">
+      <c r="B10">
         <v>24</v>
       </c>
-      <c r="D4">
-        <v>51.8551</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="C10">
+        <v>51.041600000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5">
+      <c r="B11">
         <v>48</v>
       </c>
-      <c r="D5">
-        <v>51.526800000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="C11">
+        <v>50.859400000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6">
+      <c r="B12">
         <v>72</v>
       </c>
-      <c r="D6">
-        <v>51.205300000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="C12">
+        <v>50.636299999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7">
+      <c r="B13">
         <v>96</v>
       </c>
-      <c r="D7">
-        <v>50.911000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8">
-        <v>-24</v>
-      </c>
-      <c r="D8">
-        <v>39.692900000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>51.446199999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10">
-        <v>24</v>
-      </c>
-      <c r="D10">
-        <v>51.041600000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11">
-        <v>48</v>
-      </c>
-      <c r="D11">
-        <v>50.859400000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12">
-        <v>72</v>
-      </c>
-      <c r="D12">
-        <v>50.636299999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C13">
-        <v>96</v>
-      </c>
-      <c r="D13">
         <v>50.478999999999999</v>
       </c>
     </row>
@@ -778,7 +733,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1422,7 +1377,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1898,7 +1853,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2374,7 +2329,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3019,7 +2974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB109D08-A5B1-6D4B-A447-26B54BD3B22D}">
   <dimension ref="A1:AV63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI41" workbookViewId="0">
+    <sheetView topLeftCell="AI41" workbookViewId="0">
       <selection activeCell="AK63" sqref="AK63"/>
     </sheetView>
   </sheetViews>
@@ -3030,7 +2985,7 @@
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
